--- a/medicine/Enfance/Ophélie_Texier/Ophélie_Texier.xlsx
+++ b/medicine/Enfance/Ophélie_Texier/Ophélie_Texier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oph%C3%A9lie_Texier</t>
+          <t>Ophélie_Texier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ophélie Texier, née le 12 mai 1970 à la Varenne-Saint-Hilaire, est une illustratrice française, auteure d'album pour enfants dont les personnages sont le plus souvent des animaux anthropomorphes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oph%C3%A9lie_Texier</t>
+          <t>Ophélie_Texier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de graphisme à l'École de communication visuelle à Paris, Ophélie Texier reçoit l'enseignement de Grégoire Solotareff avant de débuter aux éditions de L'École des loisirs. Elle y crée une série, Les Petites Familles, sur des familles peu représentées dans les albums pour les jeunes enfants (homoparentales, immigrées, nombreuses, recomposées, enfants adoptés, orphelins, jumeaux, uniques).
 Elle publie également plusieurs albums chez Gallimard (une série Maman et bébé mettant en scène une mère et son petit sur des sujets de la vie quotidienne), ainsi que des documentaires pour enfants en livres animés chez Nathan. Elle signe ainsi les quatre premiers volumes de la collection « Minikidi », et créée la collection « Coucou petit… » qui raconte le quotidien des petits des animaux. Elle crée ensuite, pour Actes Sud junior, le personnage de Crocolou, un petit né d'une mère crocodile et d'un père loup.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oph%C3%A9lie_Texier</t>
+          <t>Ophélie_Texier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2023 : Une cabane por Crocolou  (ISBN 9782330176006)
 2023 : Crocolou part en voyage  (ISBN 9782330175764)</t>
